--- a/opinions/parsed_wiki_data/2008.xlsx
+++ b/opinions/parsed_wiki_data/2008.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K83"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,11 +477,6 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">alito </t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>alito</t>
         </is>
       </c>
@@ -530,8 +525,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -581,8 +575,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -632,8 +625,7 @@
           <t>concurrencedissent</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -683,8 +675,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -734,8 +725,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -785,8 +775,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>joindissent</t>
         </is>
@@ -836,8 +825,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -887,8 +875,7 @@
           <t>majority</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>concurrence</t>
         </is>
@@ -938,8 +925,7 @@
           <t>joindissent1</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -989,8 +975,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -1040,8 +1025,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -1091,8 +1075,7 @@
           <t>majority</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -1142,8 +1125,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>majority</t>
         </is>
@@ -1193,8 +1175,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>majority</t>
         </is>
@@ -1244,8 +1225,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>joindissent1</t>
         </is>
@@ -1295,8 +1275,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>concurrence</t>
         </is>
@@ -1346,8 +1325,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -1397,8 +1375,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -1448,8 +1425,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -1499,8 +1475,7 @@
           <t>majority</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -1550,8 +1525,7 @@
           <t>concurrence</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>joinconcurrence</t>
         </is>
@@ -1601,8 +1575,7 @@
           <t>concurrencedissent</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -1652,8 +1625,7 @@
           <t>concurrence</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -1703,8 +1675,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -1754,8 +1725,7 @@
           <t>concurrence</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -1805,8 +1775,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>majority</t>
         </is>
@@ -1856,8 +1825,7 @@
           <t>dissent</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -1907,8 +1875,7 @@
           <t>joinconcurrencedissent</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -1958,8 +1925,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>dissent</t>
         </is>
@@ -2009,8 +1975,7 @@
           <t>joindissent1</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -2060,8 +2025,7 @@
           <t>joinconcurrencedissent</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>joinconcurrencedissent</t>
         </is>
@@ -2111,8 +2075,7 @@
           <t>dissent</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -2162,8 +2125,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>majority</t>
         </is>
@@ -2213,8 +2175,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -2264,8 +2225,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -2315,8 +2275,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -2366,8 +2325,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>majority</t>
         </is>
@@ -2417,8 +2375,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -2468,8 +2425,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>joinconcurrencedissent</t>
         </is>
@@ -2519,8 +2475,7 @@
           <t>concurrencedissent</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -2570,8 +2525,7 @@
           <t>joindissent2</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -2621,8 +2575,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -2672,8 +2625,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>dissent</t>
         </is>
@@ -2723,8 +2675,7 @@
           <t>dissent1</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>dissent2</t>
         </is>
@@ -2774,8 +2725,7 @@
           <t>majority</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -2825,8 +2775,7 @@
           <t>majority</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -2876,8 +2825,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>dissent</t>
         </is>
@@ -2927,8 +2875,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>concurrencedissent</t>
         </is>
@@ -2978,8 +2925,7 @@
           <t>dissent3</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>joinmajority</t>
         </is>
@@ -3001,7 +2947,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3016,7 +2962,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -3029,10 +2975,9 @@
           <t>dissent2</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> joinmajority</t>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>joinmajority</t>
         </is>
       </c>
     </row>
@@ -3047,12 +2992,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dissent</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> majority</t>
+          <t>majority</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3067,7 +3012,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3080,10 +3025,9 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> joinmajority</t>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>joinmajority</t>
         </is>
       </c>
     </row>
@@ -3098,12 +3042,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> majority</t>
+          <t>majority</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3118,7 +3062,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -3131,10 +3075,9 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> joinmajority</t>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>joinmajority</t>
         </is>
       </c>
     </row>
@@ -3149,12 +3092,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joindissent</t>
+          <t>joindissent</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> majority</t>
+          <t>majority</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3169,7 +3112,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -3182,10 +3125,9 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> joinmajority</t>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>joinmajority</t>
         </is>
       </c>
     </row>
@@ -3200,12 +3142,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3233,10 +3175,9 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> joinmajority</t>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>joinmajority</t>
         </is>
       </c>
     </row>
@@ -3251,12 +3192,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> concurrence1</t>
+          <t>concurrence1</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3271,7 +3212,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinconcurrence1</t>
+          <t>joinconcurrence1</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3284,8 +3225,7 @@
           <t>majority</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>concurrence2</t>
         </is>
@@ -3302,12 +3242,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joindissent1</t>
+          <t>joindissent1</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3322,7 +3262,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3335,10 +3275,9 @@
           <t>joindissent1</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> joinmajority</t>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>joinmajority</t>
         </is>
       </c>
     </row>
@@ -3353,12 +3292,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3373,7 +3312,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3386,10 +3325,9 @@
           <t>joindissent</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> joinmajority</t>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>joinmajority</t>
         </is>
       </c>
     </row>
@@ -3437,8 +3375,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>partjoindissent</t>
         </is>
@@ -3455,12 +3392,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dissent1</t>
+          <t>dissent1</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> majority</t>
+          <t>majority</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3475,7 +3412,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3488,10 +3425,9 @@
           <t>partjoindissent1</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> joinmajority</t>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>joinmajority</t>
         </is>
       </c>
     </row>
@@ -3506,12 +3442,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3526,7 +3462,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3539,10 +3475,9 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> joinmajority</t>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>joinmajority</t>
         </is>
       </c>
     </row>
@@ -3557,12 +3492,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3577,7 +3512,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3590,10 +3525,9 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> joinmajority</t>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>joinmajority</t>
         </is>
       </c>
     </row>
@@ -3608,12 +3542,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dissent1</t>
+          <t>dissent1</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3628,7 +3562,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3641,10 +3575,9 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> joinmajority</t>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>joinmajority</t>
         </is>
       </c>
     </row>
@@ -3659,12 +3592,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> majority</t>
+          <t>majority</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3679,7 +3612,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3692,10 +3625,9 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> joinmajority</t>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>joinmajority</t>
         </is>
       </c>
     </row>
@@ -3730,7 +3662,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joindissent1</t>
+          <t>joindissent1</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3743,10 +3675,9 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> joindissent1</t>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>joindissent1</t>
         </is>
       </c>
     </row>
@@ -3761,12 +3692,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinconcurrencedissent</t>
+          <t>joinconcurrencedissent</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3781,7 +3712,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinconcurrencedissent</t>
+          <t>joinconcurrencedissent</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3794,10 +3725,9 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> joinconcurrencedissent</t>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>joinconcurrencedissent</t>
         </is>
       </c>
     </row>
@@ -3812,12 +3742,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3832,7 +3762,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> majority</t>
+          <t>majority</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3845,10 +3775,9 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> joinmajority</t>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>joinmajority</t>
         </is>
       </c>
     </row>
@@ -3868,7 +3797,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3883,7 +3812,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3896,8 +3825,7 @@
           <t>joindissent</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>majority</t>
         </is>
@@ -3914,12 +3842,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3934,7 +3862,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3947,10 +3875,9 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> joinmajority</t>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>joinmajority</t>
         </is>
       </c>
     </row>
@@ -3965,12 +3892,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dissent</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3985,7 +3912,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinconcurrence1</t>
+          <t>joinconcurrence1</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3998,8 +3925,7 @@
           <t>plurality</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
+      <c r="J70" t="inlineStr">
         <is>
           <t>partjoinmajority</t>
         </is>
@@ -4016,12 +3942,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4036,7 +3962,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -4049,10 +3975,9 @@
           <t>majority</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> joinmajority</t>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>joinmajority</t>
         </is>
       </c>
     </row>
@@ -4072,7 +3997,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4087,7 +4012,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -4100,10 +4025,9 @@
           <t>joindissent1</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> joinmajority</t>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>joinmajority</t>
         </is>
       </c>
     </row>
@@ -4138,7 +4062,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joindissent1</t>
+          <t>joindissent1</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -4151,8 +4075,7 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
+      <c r="J73" t="inlineStr">
         <is>
           <t>joindissent1</t>
         </is>
@@ -4169,12 +4092,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dissent</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4189,7 +4112,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -4202,10 +4125,9 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> joinmajority</t>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>joinmajority</t>
         </is>
       </c>
     </row>
@@ -4220,12 +4142,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dissent1</t>
+          <t>dissent1</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4240,7 +4162,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> majority</t>
+          <t>majority</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -4253,10 +4175,9 @@
           <t>joindissent1</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> joinmajority</t>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>joinmajority</t>
         </is>
       </c>
     </row>
@@ -4271,12 +4192,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4304,10 +4225,9 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> joinmajority</t>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>joinmajority</t>
         </is>
       </c>
     </row>
@@ -4322,12 +4242,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> majority</t>
+          <t>majority</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joindissent</t>
+          <t>joindissent</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4342,7 +4262,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joindissent</t>
+          <t>joindissent</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4355,10 +4275,9 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> joinmajority</t>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>joinmajority</t>
         </is>
       </c>
     </row>
@@ -4373,7 +4292,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joindissent</t>
+          <t>joindissent</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -4393,7 +4312,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4406,10 +4325,9 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> joinmajority</t>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>joinmajority</t>
         </is>
       </c>
     </row>
@@ -4424,12 +4342,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> majority</t>
+          <t>majority</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4444,7 +4362,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4457,10 +4375,9 @@
           <t>joindissent</t>
         </is>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> joindissent</t>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>joindissent</t>
         </is>
       </c>
     </row>
@@ -4475,12 +4392,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> partjoinmajority </t>
+          <t>partjoinmajority</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4495,7 +4412,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> concurrencedissent2</t>
+          <t>concurrencedissent2</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4508,10 +4425,9 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> joinmajority</t>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>joinmajority</t>
         </is>
       </c>
     </row>
@@ -4526,12 +4442,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joindissent</t>
+          <t>joindissent</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4546,7 +4462,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> majority</t>
+          <t>majority</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4559,10 +4475,9 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> dissent</t>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>dissent</t>
         </is>
       </c>
     </row>
@@ -4577,12 +4492,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joindissent</t>
+          <t>joindissent</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4597,7 +4512,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4610,10 +4525,9 @@
           <t>dissent</t>
         </is>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> majority</t>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>majority</t>
         </is>
       </c>
     </row>
@@ -4628,12 +4542,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> joinmajority</t>
+          <t>joinmajority</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> majority</t>
+          <t>majority</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4648,7 +4562,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> concurrencedissent</t>
+          <t>concurrencedissent</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4661,10 +4575,9 @@
           <t>joinmajority</t>
         </is>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> joinconcurrencedissent</t>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>joinconcurrencedissent</t>
         </is>
       </c>
     </row>

--- a/opinions/parsed_wiki_data/2008.xlsx
+++ b/opinions/parsed_wiki_data/2008.xlsx
@@ -487,47 +487,47 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -537,47 +537,47 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -592,27 +592,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>partjoinconcurrencedissent</t>
+          <t>concurrence partjoinconcurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence partjoinconcurrencedissent</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -622,12 +622,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>concurrencedissent</t>
+          <t>concurrence dissent concurrencedissent</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -637,47 +637,47 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -687,7 +687,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -697,37 +697,37 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -747,17 +747,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -767,17 +767,17 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -787,27 +787,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -817,17 +817,17 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -837,37 +837,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>joinconcurrence</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -892,42 +892,42 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -937,12 +937,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -952,17 +952,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -972,12 +972,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -987,22 +987,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1017,17 +1017,17 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1037,37 +1037,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
     </row>
@@ -1087,42 +1087,42 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1137,42 +1137,42 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1187,47 +1187,47 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>dissentwithoutopinion</t>
+          <t>dissentwithoutopinion dissent</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -1237,22 +1237,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1262,17 +1262,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>joinconcurrence</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1287,22 +1287,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1312,22 +1312,22 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1337,22 +1337,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1362,22 +1362,22 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1387,32 +1387,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1422,12 +1422,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1437,37 +1437,37 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1487,37 +1487,37 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>joinconcurrence</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
     </row>
@@ -1542,42 +1542,42 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>concurrencedissent</t>
+          <t>concurrence dissent concurrencedissent</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1597,17 +1597,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>concurrencedissent|justice5-sortcode</t>
+          <t>concurrence dissent concurrencedissent</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>joinconcurrencedissent</t>
+          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1642,27 +1642,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority joinmajority</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1672,12 +1672,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1692,32 +1692,32 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>joinconcurrence</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>joinconcurrence</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>joinconcurrence</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1727,7 +1727,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1737,42 +1737,42 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>concurrence3</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1787,12 +1787,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1802,22 +1802,22 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1837,17 +1837,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>concurrencedissent</t>
+          <t>concurrence dissent concurrencedissent</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1857,7 +1857,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1867,17 +1867,17 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>joinconcurrencedissent</t>
+          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1897,32 +1897,32 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>concurrence1</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1937,17 +1937,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>joinconcurrence</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1967,17 +1967,17 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1987,32 +1987,32 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>concurrencedissent</t>
+          <t>concurrence dissent concurrencedissent</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>joinconcurrencedissent</t>
+          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2022,12 +2022,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>joinconcurrencedissent</t>
+          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>joinconcurrencedissent</t>
+          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
         </is>
       </c>
     </row>
@@ -2037,32 +2037,32 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2087,42 +2087,42 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2137,27 +2137,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority joinmajority</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority joinmajority</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2167,17 +2167,17 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority joinmajority</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2187,12 +2187,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2212,22 +2212,22 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2237,32 +2237,32 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2272,12 +2272,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2287,42 +2287,42 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2337,47 +2337,47 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>concurrence1</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2397,37 +2397,37 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>concurrencedissent</t>
+          <t>concurrence dissent concurrencedissent</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>concurrence2</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>joinconcurrencedissent</t>
+          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
         </is>
       </c>
     </row>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2452,32 +2452,32 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>concurrencedissent</t>
+          <t>concurrence dissent concurrencedissent</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2487,27 +2487,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2517,17 +2517,17 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>joindissent2</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>joindissent2</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2537,12 +2537,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2552,32 +2552,32 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2587,22 +2587,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2612,17 +2612,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2637,7 +2637,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>joindissent2</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2647,37 +2647,37 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>joindissent2</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
     </row>
@@ -2687,37 +2687,37 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2727,7 +2727,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2737,22 +2737,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2762,12 +2762,12 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2777,7 +2777,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2792,37 +2792,37 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2847,17 +2847,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2867,17 +2867,17 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>concurrencedissent</t>
+          <t>concurrence dissent concurrencedissent</t>
         </is>
       </c>
     </row>
@@ -2887,12 +2887,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2902,32 +2902,32 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>joindissent3</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>dissent3</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2942,42 +2942,42 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2987,7 +2987,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3002,32 +3002,32 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3047,22 +3047,22 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -3072,12 +3072,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3087,12 +3087,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3112,22 +3112,22 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3137,27 +3137,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3167,17 +3167,17 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3187,37 +3187,37 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>concurrence1</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>joinconcurrence1</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3227,7 +3227,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>concurrence2</t>
+          <t>concurrence</t>
         </is>
       </c>
     </row>
@@ -3237,17 +3237,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3257,27 +3257,27 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3287,22 +3287,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3312,7 +3312,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3322,12 +3322,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>partjoindissent</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3347,17 +3347,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>partjoindissent</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3367,17 +3367,17 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>partjoindissent</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
     </row>
@@ -3387,12 +3387,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3402,32 +3402,32 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>partjoindissent1</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
     </row>
@@ -3437,22 +3437,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3462,22 +3462,22 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3487,32 +3487,32 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3522,12 +3522,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3537,47 +3537,47 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3587,12 +3587,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3602,32 +3602,32 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3637,17 +3637,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3657,27 +3657,27 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -3687,17 +3687,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>concurrencedissent</t>
+          <t>concurrence dissent concurrencedissent</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>joinconcurrencedissent</t>
+          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3707,27 +3707,27 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>joinconcurrencedissent</t>
+          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>joinconcurrencedissent</t>
+          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
         </is>
       </c>
     </row>
@@ -3737,27 +3737,27 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3767,17 +3767,17 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3797,32 +3797,32 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3837,47 +3837,47 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>concurrence1</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3897,27 +3897,27 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>joinconcurrence1</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
     </row>
@@ -3937,37 +3937,37 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3977,7 +3977,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3992,42 +3992,42 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>partjoindissent1</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence partjoinconcurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
     </row>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4047,37 +4047,37 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -4087,7 +4087,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -4097,12 +4097,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4112,22 +4112,22 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -4137,27 +4137,27 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -4167,17 +4167,17 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -4192,42 +4192,42 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>concurrencedissent</t>
+          <t>concurrence dissent concurrencedissent</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4247,12 +4247,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4262,22 +4262,22 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -4287,17 +4287,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4307,12 +4307,12 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4322,12 +4322,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -4337,12 +4337,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -4357,27 +4357,27 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -4387,22 +4387,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4412,22 +4412,22 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>concurrencedissent2</t>
+          <t>concurrence dissent concurrencedissent</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -4437,27 +4437,27 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -4467,12 +4467,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4487,37 +4487,37 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4537,12 +4537,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>joinconcurrencedissent</t>
+          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -4552,32 +4552,32 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>joinconcurrencedissent</t>
+          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>concurrencedissent</t>
+          <t>concurrence dissent concurrencedissent</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>joinconcurrencedissent</t>
+          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
         </is>
       </c>
     </row>

--- a/opinions/parsed_wiki_data/2008.xlsx
+++ b/opinions/parsed_wiki_data/2008.xlsx
@@ -487,47 +487,47 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -537,47 +537,47 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -592,17 +592,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>concurrence partjoinconcurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence partjoinconcurrencedissent</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent partjoinconcurrence partjoinconcurrencedissent</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -622,12 +622,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent</t>
+          <t>concurrence concurrencedissent dissent</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -637,47 +637,47 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -687,7 +687,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -697,12 +697,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -752,12 +752,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -767,12 +767,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -787,27 +787,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -817,17 +817,17 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -837,27 +837,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -912,7 +912,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -972,12 +972,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -987,7 +987,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -997,12 +997,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1037,37 +1037,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1087,42 +1087,42 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1137,42 +1137,42 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1192,37 +1192,37 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>dissentwithoutopinion dissent</t>
+          <t>dissent dissentwithoutopinion</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1237,22 +1237,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1267,12 +1267,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1287,22 +1287,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1312,22 +1312,22 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1337,22 +1337,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1362,22 +1362,22 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1387,32 +1387,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1422,12 +1422,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1437,37 +1437,37 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1487,37 +1487,37 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1547,12 +1547,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1562,22 +1562,22 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent</t>
+          <t>concurrence concurrencedissent dissent</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1597,17 +1597,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent</t>
+          <t>concurrence concurrencedissent dissent</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1642,7 +1642,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1652,17 +1652,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>partjoinmajority majority joinmajority</t>
+          <t>joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1672,12 +1672,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1697,12 +1697,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1712,7 +1712,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1727,7 +1727,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1737,22 +1737,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1762,17 +1762,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1837,17 +1837,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent</t>
+          <t>concurrence concurrencedissent dissent</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1857,7 +1857,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1867,17 +1867,17 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1902,12 +1902,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1917,12 +1917,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1937,7 +1937,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1987,32 +1987,32 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent</t>
+          <t>concurrence concurrencedissent dissent</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2022,12 +2022,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2047,22 +2047,22 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2087,42 +2087,42 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2137,27 +2137,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>partjoinmajority majority joinmajority</t>
+          <t>joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>partjoinmajority majority joinmajority</t>
+          <t>joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2167,17 +2167,17 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>partjoinmajority majority joinmajority</t>
+          <t>joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2212,22 +2212,22 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2237,32 +2237,32 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2272,12 +2272,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2287,42 +2287,42 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2337,47 +2337,47 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2397,17 +2397,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent</t>
+          <t>concurrence concurrencedissent dissent</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2417,17 +2417,17 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent</t>
         </is>
       </c>
     </row>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2462,7 +2462,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2472,12 +2472,12 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent</t>
+          <t>concurrence concurrencedissent dissent</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2497,12 +2497,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2527,7 +2527,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2537,12 +2537,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2552,32 +2552,32 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2617,12 +2617,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2647,7 +2647,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2657,22 +2657,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2687,37 +2687,37 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
+          <t>concurrence concurrencedissent dissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2727,7 +2727,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2737,7 +2737,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2747,12 +2747,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2777,7 +2777,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2792,22 +2792,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2817,12 +2817,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2852,12 +2852,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2867,17 +2867,17 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent</t>
+          <t>concurrence concurrencedissent dissent</t>
         </is>
       </c>
     </row>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2912,7 +2912,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2947,27 +2947,27 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2977,7 +2977,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2987,7 +2987,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3002,17 +3002,17 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3022,12 +3022,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3047,22 +3047,22 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -3072,12 +3072,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3102,7 +3102,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3112,22 +3112,22 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3137,27 +3137,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3167,17 +3167,17 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3187,12 +3187,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3202,12 +3202,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3217,7 +3217,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3262,7 +3262,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3277,7 +3277,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3287,22 +3287,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3312,7 +3312,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3327,7 +3327,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3347,17 +3347,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3367,17 +3367,17 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3402,7 +3402,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3412,7 +3412,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3422,12 +3422,12 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3437,22 +3437,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3462,22 +3462,22 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3487,32 +3487,32 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3522,12 +3522,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3547,22 +3547,22 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3572,12 +3572,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3587,12 +3587,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3602,32 +3602,32 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3667,12 +3667,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3687,17 +3687,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent</t>
+          <t>concurrence concurrencedissent dissent</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3707,27 +3707,27 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent</t>
         </is>
       </c>
     </row>
@@ -3737,27 +3737,27 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3767,17 +3767,17 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3797,27 +3797,27 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3837,47 +3837,47 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3897,12 +3897,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3917,7 +3917,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
     </row>
@@ -3937,37 +3937,37 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3977,7 +3977,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3997,22 +3997,22 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>majority concurrence partjoinconcurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority partjoinconcurrence</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -4027,7 +4027,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4052,12 +4052,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -4067,12 +4067,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -4097,12 +4097,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4112,7 +4112,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -4122,12 +4122,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4147,12 +4147,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4177,7 +4177,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -4192,42 +4192,42 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent</t>
+          <t>concurrence concurrencedissent dissent</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4252,7 +4252,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4267,17 +4267,17 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4322,12 +4322,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -4342,7 +4342,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -4357,17 +4357,17 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4387,22 +4387,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
+          <t>concurrence concurrencedissent dissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4412,22 +4412,22 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent</t>
+          <t>concurrence concurrencedissent dissent</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -4442,7 +4442,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -4457,7 +4457,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -4467,12 +4467,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4487,7 +4487,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4497,12 +4497,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4512,7 +4512,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4537,12 +4537,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -4552,32 +4552,32 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent</t>
+          <t>concurrence concurrencedissent dissent</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent</t>
         </is>
       </c>
     </row>
